--- a/StructureDefinition-profile-Medication.xlsx
+++ b/StructureDefinition-profile-Medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="287">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7292427-06:00</t>
+    <t>2026-02-09T22:05:43.1946049-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -428,38 +428,65 @@
     <t>Medication.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Medication.extension:definition</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Medication.definition from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/MedicationKnowledge in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Medication.definition` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Medication.definition` is will have a context of Medication based on following the parent source element upwards and mapping to `Medication`.</t>
+  </si>
+  <si>
+    <t>Medication.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Medication.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -647,23 +674,16 @@
     <t>Medication.amount.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Medication.amount.extension:totalVolume</t>
+  </si>
+  <si>
+    <t>totalVolume</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Medication.totalVolume|0.0.1-snapshot-3}
@@ -676,6 +696,9 @@
     <t>When the specified product code does not infer a package size, this is the specific amount of drug in the product.  For example, when specifying a product that has the same strength (For example, Insulin glargine 100 unit per mL solution for injection), this attribute provides additional clarification of the package amount (For example, 3 mL, 10mL, etc.).</t>
   </si>
   <si>
+    <t>Element `Medication.totalVolume` is mapped to FHIR R4 element `Medication.amount`.</t>
+  </si>
+  <si>
     <t>Medication.amount.numerator</t>
   </si>
   <si>
@@ -735,6 +758,9 @@
     <t>Medication.ingredient.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -818,6 +844,12 @@
     <t>Medication.ingredient.strength.extension</t>
   </si>
   <si>
+    <t>Medication.ingredient.strength.extension:strength</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Medication.ingredient.strength|0.0.1-snapshot-3}
 </t>
   </si>
@@ -826,6 +858,9 @@
   </si>
   <si>
     <t>Specifies how many (or how much) of the items there are in this Medication.  For example, 250 mg per tablet.  This is expressed as a ratio where the numerator is 250mg and the denominator is 1 tablet but can also be expressed a quantity when the denominator is assumed to be 1 tablet.</t>
+  </si>
+  <si>
+    <t>Element `Medication.ingredient.strength[x]` is mapped to FHIR R4 element `Medication.ingredient.strength`.</t>
   </si>
   <si>
     <t>Medication.ingredient.strength.numerator</t>
@@ -1190,7 +1225,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1199,9 +1234,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.0703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.68359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.0703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2165,7 +2200,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2184,17 +2219,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2231,16 +2264,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2261,7 +2292,7 @@
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>77</v>
@@ -2275,43 +2306,43 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2359,7 +2390,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2377,7 +2408,7 @@
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2388,14 +2419,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2408,24 +2439,26 @@
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2473,7 +2506,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2485,16 +2518,16 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -2502,10 +2535,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2516,7 +2549,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2528,16 +2561,16 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2563,13 +2596,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -2587,13 +2620,13 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
@@ -2602,24 +2635,24 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2636,22 +2669,22 @@
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2677,13 +2710,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -2701,7 +2734,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2716,16 +2749,16 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -2750,21 +2783,23 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2789,13 +2824,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2828,16 +2863,16 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -2865,20 +2900,18 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N15" t="s" s="2">
         <v>182</v>
       </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2903,13 +2936,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -2942,24 +2975,24 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2979,18 +3012,20 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3015,13 +3050,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3039,7 +3074,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3054,24 +3089,24 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3091,16 +3126,16 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3151,7 +3186,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3163,13 +3198,13 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3180,10 +3215,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3191,11 +3226,11 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3206,13 +3241,13 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3251,16 +3286,16 @@
         <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>205</v>
@@ -3269,19 +3304,19 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3292,10 +3327,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3306,7 +3341,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3318,13 +3353,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3363,19 +3398,19 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3404,12 +3439,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3427,18 +3464,20 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3487,25 +3526,25 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3516,10 +3555,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3542,13 +3581,13 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3599,7 +3638,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3617,7 +3656,7 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3628,10 +3667,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3642,7 +3681,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -3651,20 +3690,18 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N22" t="s" s="2">
         <v>224</v>
       </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -3713,13 +3750,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -3731,7 +3768,7 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3742,10 +3779,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3756,7 +3793,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -3768,15 +3805,17 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3825,25 +3864,25 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -3854,21 +3893,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -3880,17 +3919,15 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -3945,19 +3982,19 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -3968,14 +4005,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>230</v>
+        <v>146</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3988,26 +4025,24 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4055,7 +4090,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4073,7 +4108,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4084,43 +4119,45 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4169,39 +4206,39 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4209,7 +4246,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
@@ -4224,17 +4261,17 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4283,10 +4320,10 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>87</v>
@@ -4298,24 +4335,24 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4338,16 +4375,18 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4395,7 +4434,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4410,24 +4449,24 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4450,13 +4489,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4507,7 +4546,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4519,27 +4558,27 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4547,11 +4586,11 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4562,13 +4601,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4607,16 +4646,16 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>205</v>
@@ -4625,19 +4664,19 @@
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4648,10 +4687,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4662,7 +4701,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4674,13 +4713,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>255</v>
+        <v>133</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4719,19 +4758,19 @@
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4760,12 +4799,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>77</v>
       </c>
@@ -4783,18 +4824,20 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -4843,25 +4886,25 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -4872,10 +4915,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4898,13 +4941,13 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4955,7 +4998,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -4973,7 +5016,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -4984,10 +5027,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5007,16 +5050,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5067,7 +5110,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5082,10 +5125,10 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5096,10 +5139,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5122,13 +5165,13 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5179,7 +5222,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5191,13 +5234,13 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>198</v>
+        <v>273</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5208,21 +5251,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5234,17 +5277,15 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5299,19 +5340,19 @@
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5322,14 +5363,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>230</v>
+        <v>146</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5342,26 +5383,24 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5409,7 +5448,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5427,7 +5466,7 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5438,42 +5477,46 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5521,39 +5564,39 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5576,13 +5619,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5633,7 +5676,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5648,16 +5691,128 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-Medication.xlsx
+++ b/StructureDefinition-profile-Medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="286">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1946049-06:00</t>
+    <t>2026-02-17T14:42:26.8449082-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -469,7 +469,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Medication.definition` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Medication.definition` is will have a context of Medication based on following the parent source element upwards and mapping to `Medication`.</t>
+Element `Medication.definition` has a context of Medication based on following the parent source element upwards and mapping to `Medication`.</t>
   </si>
   <si>
     <t>Medication.modifierExtension</t>
@@ -696,7 +696,7 @@
     <t>When the specified product code does not infer a package size, this is the specific amount of drug in the product.  For example, when specifying a product that has the same strength (For example, Insulin glargine 100 unit per mL solution for injection), this attribute provides additional clarification of the package amount (For example, 3 mL, 10mL, etc.).</t>
   </si>
   <si>
-    <t>Element `Medication.totalVolume` is mapped to FHIR R4 element `Medication.amount`.</t>
+    <t>Element `Medication.totalVolume` has is mapped to FHIR R4 element `Medication.amount`, but has no comparisons.</t>
   </si>
   <si>
     <t>Medication.amount.numerator</t>
@@ -758,10 +758,24 @@
     <t>Medication.ingredient.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Medication.ingredient.extension:ingredient</t>
+  </si>
+  <si>
+    <t>ingredient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Medication.ingredient|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Medication.ingredient from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Medication.ingredient` has is mapped to FHIR R4 element `Medication.ingredient`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Medication.ingredient.modifierExtension</t>
@@ -838,53 +852,38 @@
     <t>RXC-3-Component Amount &amp; RXC-4-Component Units  if medication: RXO-2-Requested Give Amount - Minimum &amp; RXO-4-Requested Give Units / RXO-3-Requested Give Amount - Maximum &amp; RXO-4-Requested Give Units / RXO-11-Requested Dispense Amount &amp; RXO-12-Requested Dispense Units / RXE-3-Give Amount - Minimum &amp; RXE-5-Give Units / RXE-4-Give Amount - Maximum &amp; RXE-5-Give Units / RXE-10-Dispense Amount &amp; RXE-10-Dispense Units</t>
   </si>
   <si>
-    <t>Medication.ingredient.strength.id</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.strength.extension</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.strength.extension:strength</t>
-  </si>
-  <si>
-    <t>strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Medication.ingredient.strength|0.0.1-snapshot-3}
+    <t>Medication.batch</t>
+  </si>
+  <si>
+    <t>Details about packaged medications</t>
+  </si>
+  <si>
+    <t>Information that only applies to packages (not products).</t>
+  </si>
+  <si>
+    <t>.player[classCode=CONT]</t>
+  </si>
+  <si>
+    <t>Medication.batch.id</t>
+  </si>
+  <si>
+    <t>Medication.batch.extension</t>
+  </si>
+  <si>
+    <t>Medication.batch.extension:batch</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Medication.batch|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Medication.ingredient.strength[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Specifies how many (or how much) of the items there are in this Medication.  For example, 250 mg per tablet.  This is expressed as a ratio where the numerator is 250mg and the denominator is 1 tablet but can also be expressed a quantity when the denominator is assumed to be 1 tablet.</t>
-  </si>
-  <si>
-    <t>Element `Medication.ingredient.strength[x]` is mapped to FHIR R4 element `Medication.ingredient.strength`.</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.strength.numerator</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.strength.denominator</t>
-  </si>
-  <si>
-    <t>Medication.batch</t>
-  </si>
-  <si>
-    <t>Details about packaged medications</t>
-  </si>
-  <si>
-    <t>Information that only applies to packages (not products).</t>
-  </si>
-  <si>
-    <t>.player[classCode=CONT]</t>
-  </si>
-  <si>
-    <t>Medication.batch.id</t>
-  </si>
-  <si>
-    <t>Medication.batch.extension</t>
+    <t>Cross-version extension for Medication.batch from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Medication.batch` has is mapped to FHIR R4 element `Medication.batch`, but has no comparisons.</t>
   </si>
   <si>
     <t>Medication.batch.modifierExtension</t>
@@ -1225,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AN37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1234,8 +1233,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.68359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.0703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.9140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.94140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
@@ -1244,7 +1243,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4012,7 +4011,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4034,14 +4033,12 @@
         <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4078,16 +4075,14 @@
         <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>209</v>
@@ -4108,7 +4103,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4119,14 +4114,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4139,26 +4136,24 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4206,7 +4201,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4215,7 +4210,7 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>138</v>
@@ -4224,7 +4219,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4235,43 +4230,45 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>246</v>
+        <v>150</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4320,39 +4317,39 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4360,7 +4357,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -4375,17 +4372,17 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4434,10 +4431,10 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>87</v>
@@ -4449,24 +4446,24 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4489,16 +4486,18 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4561,24 +4560,24 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4601,13 +4600,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4658,7 +4657,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4670,27 +4669,27 @@
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4701,7 +4700,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4713,13 +4712,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>133</v>
+        <v>265</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4758,37 +4757,37 @@
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4799,14 +4798,12 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>77</v>
       </c>
@@ -4827,17 +4824,15 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -4886,25 +4881,25 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -4915,10 +4910,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4929,7 +4924,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -4938,16 +4933,16 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4986,37 +4981,35 @@
         <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5027,12 +5020,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5050,18 +5045,20 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5110,25 +5107,25 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5139,42 +5136,46 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5222,25 +5223,25 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>273</v>
+        <v>130</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5251,10 +5252,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5280,10 +5281,10 @@
         <v>202</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5334,7 +5335,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>205</v>
+        <v>276</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5346,38 +5347,38 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5389,17 +5390,15 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5448,371 +5447,31 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>209</v>
+        <v>280</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="P38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AL40" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-Medication.xlsx
+++ b/StructureDefinition-profile-Medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8449082-06:00</t>
+    <t>2026-02-20T11:59:20.8681148-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Medication|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Medication</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,7 +458,7 @@
     <t>definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -686,7 +686,7 @@
     <t>totalVolume</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Medication.totalVolume|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Medication.totalVolume}
 </t>
   </si>
   <si>
@@ -764,7 +764,7 @@
     <t>ingredient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Medication.ingredient|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Medication.ingredient}
 </t>
   </si>
   <si>
@@ -876,7 +876,7 @@
     <t>batch</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Medication.batch|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Medication.batch}
 </t>
   </si>
   <si>
@@ -1243,7 +1243,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.68359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.2734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-Medication.xlsx
+++ b/StructureDefinition-profile-Medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="282">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8681148-06:00</t>
+    <t>2026-02-21T13:36:54.2760985-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Medication</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Medication|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -428,21 +428,21 @@
     <t>Medication.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -452,31 +452,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Medication.extension:definition</t>
-  </si>
-  <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Medication.definition from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/MedicationKnowledge in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Medication.definition` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Medication.definition` has a context of Medication based on following the parent source element upwards and mapping to `Medication`.</t>
-  </si>
-  <si>
     <t>Medication.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -484,9 +460,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -674,9 +647,22 @@
     <t>Medication.amount.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -686,7 +672,7 @@
     <t>totalVolume</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Medication.totalVolume}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Medication.totalVolume|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -696,7 +682,7 @@
     <t>When the specified product code does not infer a package size, this is the specific amount of drug in the product.  For example, when specifying a product that has the same strength (For example, Insulin glargine 100 unit per mL solution for injection), this attribute provides additional clarification of the package amount (For example, 3 mL, 10mL, etc.).</t>
   </si>
   <si>
-    <t>Element `Medication.totalVolume` has is mapped to FHIR R4 element `Medication.amount`, but has no comparisons.</t>
+    <t>Element `Medication.totalVolume` is mapped to FHIR R4 element `Medication.amount` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Medication.amount.numerator</t>
@@ -758,24 +744,7 @@
     <t>Medication.ingredient.extension</t>
   </si>
   <si>
-    <t>Medication.ingredient.extension:ingredient</t>
-  </si>
-  <si>
-    <t>ingredient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Medication.ingredient}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Medication.ingredient from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Medication.ingredient` has is mapped to FHIR R4 element `Medication.ingredient`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Medication.ingredient.modifierExtension</t>
@@ -852,6 +821,37 @@
     <t>RXC-3-Component Amount &amp; RXC-4-Component Units  if medication: RXO-2-Requested Give Amount - Minimum &amp; RXO-4-Requested Give Units / RXO-3-Requested Give Amount - Maximum &amp; RXO-4-Requested Give Units / RXO-11-Requested Dispense Amount &amp; RXO-12-Requested Dispense Units / RXE-3-Give Amount - Minimum &amp; RXE-5-Give Units / RXE-4-Give Amount - Maximum &amp; RXE-5-Give Units / RXE-10-Dispense Amount &amp; RXE-10-Dispense Units</t>
   </si>
   <si>
+    <t>Medication.ingredient.strength.id</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.extension</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.extension:strength</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Medication.ingredient.strength|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Medication.ingredient.strength[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Specifies how many (or how much) of the items there are in this Medication.  For example, 250 mg per tablet.  This is expressed as a ratio where the numerator is 250mg and the denominator is 1 tablet but can also be expressed a quantity when the denominator is assumed to be 1 tablet.</t>
+  </si>
+  <si>
+    <t>Element `Medication.ingredient.strength[x]` is mapped to FHIR R4 element `Medication.ingredient.strength` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.numerator</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.denominator</t>
+  </si>
+  <si>
     <t>Medication.batch</t>
   </si>
   <si>
@@ -868,22 +868,6 @@
   </si>
   <si>
     <t>Medication.batch.extension</t>
-  </si>
-  <si>
-    <t>Medication.batch.extension:batch</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Medication.batch}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Medication.batch from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Medication.batch` has is mapped to FHIR R4 element `Medication.batch`, but has no comparisons.</t>
   </si>
   <si>
     <t>Medication.batch.modifierExtension</t>
@@ -1224,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1233,8 +1217,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.9140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.94140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.68359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.0703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
@@ -1243,7 +1227,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.2734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2199,7 +2183,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2218,15 +2202,17 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2263,14 +2249,16 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2291,7 +2279,7 @@
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>77</v>
@@ -2305,43 +2293,43 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2389,7 +2377,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2407,7 +2395,7 @@
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2418,14 +2406,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2438,26 +2426,24 @@
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K11" t="s" s="2">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2505,7 +2491,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2517,16 +2503,16 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -2534,10 +2520,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2548,7 +2534,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2560,16 +2546,16 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2595,13 +2581,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -2619,13 +2605,13 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
@@ -2634,24 +2620,24 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2668,22 +2654,22 @@
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2709,13 +2695,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -2733,7 +2719,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2748,16 +2734,16 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -2782,23 +2768,21 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N14" t="s" s="2">
         <v>174</v>
       </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2823,13 +2807,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2862,16 +2846,16 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -2899,18 +2883,20 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2935,13 +2921,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -2974,24 +2960,24 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3011,20 +2997,18 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3049,13 +3033,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3073,7 +3057,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3088,24 +3072,24 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3125,16 +3109,16 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3185,7 +3169,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3197,13 +3181,13 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3214,10 +3198,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3228,7 +3212,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3240,13 +3224,13 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3285,16 +3269,16 @@
         <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>205</v>
@@ -3303,19 +3287,19 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3326,12 +3310,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="B19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3340,7 +3326,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3352,15 +3338,17 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3397,19 +3385,19 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3438,14 +3426,12 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3463,20 +3449,18 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N20" t="s" s="2">
         <v>215</v>
       </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3525,25 +3509,25 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3554,10 +3538,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3580,13 +3564,13 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3637,7 +3621,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3655,7 +3639,7 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3666,10 +3650,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3680,7 +3664,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -3689,18 +3673,20 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -3749,13 +3735,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -3767,7 +3753,7 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3778,10 +3764,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3792,7 +3778,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -3804,17 +3790,15 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3863,25 +3847,25 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -3892,21 +3876,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -3918,15 +3902,17 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -3981,19 +3967,19 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4004,14 +3990,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4024,22 +4010,26 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4075,17 +4065,19 @@
         <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC25" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4103,7 +4095,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4114,23 +4106,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4142,18 +4132,18 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4201,74 +4191,72 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4317,25 +4305,25 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4346,10 +4334,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4357,7 +4345,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -4372,18 +4360,16 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4431,10 +4417,10 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>87</v>
@@ -4446,24 +4432,24 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4486,18 +4472,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4545,7 +4529,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4557,13 +4541,13 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4574,10 +4558,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4588,7 +4572,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4600,13 +4584,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4645,53 +4629,55 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
       </c>
@@ -4712,15 +4698,17 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4769,25 +4757,25 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4798,10 +4786,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4821,16 +4809,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4881,7 +4869,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4893,13 +4881,13 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -4910,10 +4898,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4924,7 +4912,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -4933,16 +4921,16 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4981,35 +4969,37 @@
         <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC33" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5020,14 +5010,12 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5048,17 +5036,15 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5107,25 +5093,25 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5136,46 +5122,42 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5223,25 +5205,25 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5252,21 +5234,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5278,15 +5260,17 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>277</v>
+        <v>134</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5335,71 +5319,75 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>281</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5447,31 +5435,255 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>285</v>
+      <c r="AM39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
